--- a/resources/tools/wordlist_E-J/lessons/lesson-16.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-16.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -368,1396 +436,1396 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>well...; let me see...</t>
+          <t>station attendant</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ええと</t>
+          <t>駅員|えきいん（さん）</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>by the end of the day</t>
+          <t>size</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>今日中に|きょうじゅうに</t>
+          <t>大きさ|おおきさ</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>the other day</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>この間|このあいだ</t>
+          <t>親|おや</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>about this much</t>
+          <t>final examination</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>このぐらい</t>
+          <t>期末試験|きまつしけん</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>I'm sorry. (casual)</t>
+          <t>research</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ごめん</t>
+          <t>研究|けんきゅう</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>from now on</t>
+          <t>garbage</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>これから</t>
+          <t>ごみ</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Excuse me.; Sorry to interrupt you.</t>
+          <t>sugar</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>失礼します|しつれいします</t>
+          <t>砂糖|さとう</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>(do something) by oneself</t>
+          <t>scholarship</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>自分で|じぶんで</t>
+          <t>奨学金|しょうがくきん</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>in class; during the class</t>
+          <t>relatives</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>授業中に|じゅぎょうちゅうに</t>
+          <t>親せき|しんせき</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>letter of recommendation</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ほかの</t>
+          <t>推薦状|すいせんじょう</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dirty</t>
+          <t>graduate school</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>汚い|きたない</t>
+          <t>大学院|だいがくいん</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>to wake (someone) up</t>
+          <t>typhoon</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>起こす|おこす</t>
+          <t>台風|たいふう</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>to treat (someone) to a meal</t>
+          <t>day</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>おごる</t>
+          <t>日|ひ</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>to get depressed</t>
+          <t>file; portfolio</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>落ち込む|おちこむ</t>
+          <t>ファイル</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>to have difficulty</t>
+          <t>way; road; directions</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>困る|こまる</t>
+          <t>道|みち</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>to take (something) out; to hand in (something)</t>
+          <t>alarm clock</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>出す|だす</t>
+          <t>目覚まし時計|めざましどけい</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>to take (someone) to (a place)</t>
+          <t>dirty</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>連れていく|つれていく</t>
+          <t>汚い|きたない</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>to correct; to fix</t>
+          <t>to wake (someone) up</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>直す|なおす</t>
+          <t>起こす|おこす</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>to become lost; to lose one's way</t>
+          <t>to treat (someone) to a meal</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>道に迷う|みちにまよう</t>
+          <t>おごる</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>to be found</t>
+          <t>to get depressed</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>見つかる|みつかる</t>
+          <t>落ち込む|おちこむ</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>to go to pick up</t>
+          <t>to have difficulty</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>迎えに行く|むかえにいく</t>
+          <t>困る|こまる</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>to translate</t>
+          <t>to take (something) out; to hand in (something)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>訳す|やくす</t>
+          <t>出す|だす</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>to laugh</t>
+          <t>to take (someone) to (a place)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>笑う|わらう</t>
+          <t>連れていく|つれていく</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>station attendant</t>
+          <t>to correct; to fix</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>駅員|えきいん（さん）</t>
+          <t>直す|なおす</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>size</t>
+          <t>to become lost; to lose one's way</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>大きさ|おおきさ</t>
+          <t>道に迷う|みちにまよう</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>to be found</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>親|おや</t>
+          <t>見つかる|みつかる</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>final examination</t>
+          <t>to go to pick up</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>期末試験|きまつしけん</t>
+          <t>迎えに行く|むかえにいく</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>research</t>
+          <t>to translate</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>研究|けんきゅう</t>
+          <t>訳す|やくす</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>garbage</t>
+          <t>to laugh</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ごみ</t>
+          <t>笑う|わらう</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>sugar</t>
+          <t>to iron (clothes)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>砂糖|さとう</t>
+          <t>アイロンをかける</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>scholarship</t>
+          <t>to collect</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>奨学金|しょうがくきん</t>
+          <t>集める|あつめる</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>relatives</t>
+          <t>to put (something) in</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>親せき|しんせき</t>
+          <t>入れる|いれる</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>letter of recommendation</t>
+          <t>to miss (a train, bus, etc.)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>推薦状|すいせんじょう</t>
+          <t>乗り遅れる|のりおくれる</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>graduate school</t>
+          <t>to show</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>大学院|だいがくいん</t>
+          <t>見せる|みせる</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>typhoon</t>
+          <t>to oversleep</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>台風|たいふう</t>
+          <t>朝寝坊する|あさねぼうする</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>day</t>
+          <t>to show (someone) around</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>日|ひ</t>
+          <t>案内する|あんないする</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>file; portfolio</t>
+          <t>to explain</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ファイル</t>
+          <t>説明する|せつめいする</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>way; road; directions</t>
+          <t>to come to pick up</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>道|みち</t>
+          <t>迎えに来る|むかえにくる</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>alarm clock</t>
+          <t>well...; let me see...</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>目覚まし時計|めざましどけい</t>
+          <t>ええと</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>to iron (clothes)</t>
+          <t>by the end of the day</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>アイロンをかける</t>
+          <t>今日中に|きょうじゅうに</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>to collect</t>
+          <t>the other day</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>集める|あつめる</t>
+          <t>この間|このあいだ</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>to put (something) in</t>
+          <t>about this much</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>入れる|いれる</t>
+          <t>このぐらい</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>to miss (a train, bus, etc.)</t>
+          <t>I'm sorry. (casual)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>乗り遅れる|のりおくれる</t>
+          <t>ごめん</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>to show</t>
+          <t>from now on</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>見せる|みせる</t>
+          <t>これから</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>to oversleep</t>
+          <t>Excuse me.; Sorry to interrupt you.</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>朝寝坊する|あさねぼうする</t>
+          <t>失礼します|しつれいします</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>to show (someone) around</t>
+          <t>(do something) by oneself</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>案内する|あんないする</t>
+          <t>自分で|じぶんで</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>to explain</t>
+          <t>in class; during the class</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>説明する|せつめいする</t>
+          <t>授業中に|じゅぎょうちゅうに</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>to come to pick up</t>
+          <t>other</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>迎えに来る|むかえにくる</t>
+          <t>ほかの</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>every week</t>
+          <t>child</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>毎週|まいしゅう</t>
+          <t>子供|こども</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>last week</t>
+          <t>to offer; to sacrifice</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>先週|せんしゅう</t>
+          <t>供える|そなえる</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>one week</t>
+          <t>offer</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>一週間|いっしゅうかん</t>
+          <t>提供|ていきょう</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>second week</t>
+          <t>the world</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>二週目|にしゅうめ</t>
+          <t>世界|せかい</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>weekend</t>
+          <t>care</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>週末|しゅうまつ</t>
+          <t>世話|せわ</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>other than...</t>
+          <t>generation</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>～以外|～いがい</t>
+          <t>世代|せだい</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>...or more</t>
+          <t>the third generation</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>～以上|～いじょう</t>
+          <t>三世|さんせい</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>...or less</t>
+          <t>the society</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>～以下|～いか</t>
+          <t>世の中|よのなか</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>within...</t>
+          <t>visibility</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>～以内|～いない</t>
+          <t>視界|しかい</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>before; formerly</t>
+          <t>political world</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>以前|いぜん</t>
+          <t>政界|せいかい</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>to think</t>
+          <t>limit</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>考える|かんがえる</t>
+          <t>限界|げんかい</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>idea</t>
+          <t>all; entire</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>考え|かんがえ</t>
+          <t>全部|ぜんぶ</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>archeology</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>考古学|こうこがく</t>
+          <t>安全|あんぜん</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>whole country</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>参考|さんこう</t>
+          <t>全国|ぜんこく</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>exercise</t>
+          <t>entirely</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>運動|うんどう</t>
+          <t>全く|まったく</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>driving</t>
+          <t>everything; all</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>運転|うんてん</t>
+          <t>全て|すべて</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>lucky</t>
+          <t>room</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>運がいい|うんがいい</t>
+          <t>部屋|へや</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>fate</t>
+          <t>tennis club</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>運命|うんめい</t>
+          <t>テニス部|テニスぶ</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>to carry</t>
+          <t>department manager</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>運ぶ|はこぶ</t>
+          <t>部長|ぶちょう</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>to move</t>
+          <t>(something) begins</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>動く|うごく</t>
+          <t>始まる|はじまる</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>automobile</t>
+          <t>to begin (something)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>自動車|じどうしゃ</t>
+          <t>始める|はじめる</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>animal</t>
+          <t>first train</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>動物|どうぶつ</t>
+          <t>始発|しはつ</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>verb</t>
+          <t>start</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>動詞|どうし</t>
+          <t>開始|かいし</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>to teach</t>
+          <t>every week</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>教える|おしえる</t>
+          <t>毎週|まいしゅう</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>last week</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>教室|きょうしつ</t>
+          <t>先週|せんしゅう</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>church</t>
+          <t>one week</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>教会|きょうかい</t>
+          <t>一週間|いっしゅうかん</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Christianity</t>
+          <t>second week</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>キリスト教|キリストきょう</t>
+          <t>二週目|にしゅうめ</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>textbook</t>
+          <t>weekend</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>教科書|きょうかしょ</t>
+          <t>週末|しゅうまつ</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>professor's office</t>
+          <t>other than...</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>研究室|けんきゅうしつ</t>
+          <t>～以外|～いがい</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>basement</t>
+          <t>...or more</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>地下室|ちかしつ</t>
+          <t>～以上|～いじょう</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>waiting room</t>
+          <t>...or less</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>待合室|まちあいしつ</t>
+          <t>～以下|～いか</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>within...</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>子供|こども</t>
+          <t>～以内|～いない</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>to offer; to sacrifice</t>
+          <t>before; formerly</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>供える|そなえる</t>
+          <t>以前|いぜん</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>offer</t>
+          <t>to think</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>提供|ていきょう</t>
+          <t>考える|かんがえる</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>the world</t>
+          <t>idea</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>世界|せかい</t>
+          <t>考え|かんがえ</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>care</t>
+          <t>archeology</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>世話|せわ</t>
+          <t>考古学|こうこがく</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>generation</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>世代|せだい</t>
+          <t>参考|さんこう</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>the third generation</t>
+          <t>to open (something)</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>三世|さんせい</t>
+          <t>開ける|あける</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>the society</t>
+          <t>(something) opens</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>世の中|よのなか</t>
+          <t>開く|あく</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>visibility</t>
+          <t>to open</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>視界|しかい</t>
+          <t>開く|ひらく</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>political world</t>
+          <t>opening of a store</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>政界|せいかい</t>
+          <t>開店|かいてん</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>limit</t>
+          <t>room</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>限界|げんかい</t>
+          <t>部屋|へや</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>to open (something)</t>
+          <t>bookstore</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>開ける|あける</t>
+          <t>本屋|ほんや</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>(something) opens</t>
+          <t>fish shop</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>開く|あく</t>
+          <t>魚屋|さかなや</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>to open</t>
+          <t>rooftop</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>開く|ひらく</t>
+          <t>屋上|おくじょう</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>opening of a store</t>
+          <t>indoor</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>開店|かいてん</t>
+          <t>屋内|おくない</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>person on one's side</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>部屋|へや</t>
+          <t>味方|みかた</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>bookstore</t>
+          <t>way of reading</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>本屋|ほんや</t>
+          <t>読み方|よみかた</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>fish shop</t>
+          <t>evening</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>魚屋|さかなや</t>
+          <t>夕方|ゆうがた</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>rooftop</t>
+          <t>both</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>屋上|おくじょう</t>
+          <t>両方|りょうほう</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>indoor</t>
+          <t>method</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>屋内|おくない</t>
+          <t>方法|ほうほう</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>person on one's side</t>
+          <t>exercise</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>味方|みかた</t>
+          <t>運動|うんどう</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>way of reading</t>
+          <t>driving</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>読み方|よみかた</t>
+          <t>運転|うんてん</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>evening</t>
+          <t>lucky</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>夕方|ゆうがた</t>
+          <t>運がいい|うんがいい</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>fate</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>両方|りょうほう</t>
+          <t>運命|うんめい</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>method</t>
+          <t>to carry</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>方法|ほうほう</t>
+          <t>運ぶ|はこぶ</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>all; entire</t>
+          <t>to move</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>全部|ぜんぶ</t>
+          <t>動く|うごく</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>automobile</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>安全|あんぜん</t>
+          <t>自動車|じどうしゃ</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>whole country</t>
+          <t>animal</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>全国|ぜんこく</t>
+          <t>動物|どうぶつ</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>entirely</t>
+          <t>verb</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>全く|まったく</t>
+          <t>動詞|どうし</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>everything; all</t>
+          <t>to teach</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>全て|すべて</t>
+          <t>教える|おしえる</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>部屋|へや</t>
+          <t>教室|きょうしつ</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>tennis club</t>
+          <t>church</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>テニス部|テニスぶ</t>
+          <t>教会|きょうかい</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>department manager</t>
+          <t>Christianity</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>部長|ぶちょう</t>
+          <t>キリスト教|キリストきょう</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>(something) begins</t>
+          <t>textbook</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>始まる|はじまる</t>
+          <t>教科書|きょうかしょ</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>to begin (something)</t>
+          <t>professor's office</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>始める|はじめる</t>
+          <t>研究室|けんきゅうしつ</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>first train</t>
+          <t>basement</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>始発|しはつ</t>
+          <t>地下室|ちかしつ</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>start</t>
+          <t>waiting room</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>開始|かいし</t>
+          <t>待合室|まちあいしつ</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/resources/tools/wordlist_E-J/lessons/lesson-16.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-16.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1826,6 +1826,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>